--- a/biology/Zoologie/Azuré_des_orpins/Azuré_des_orpins.xlsx
+++ b/biology/Zoologie/Azuré_des_orpins/Azuré_des_orpins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_orpins</t>
+          <t>Azuré_des_orpins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolitantides orion
 L’Azuré des orpins (Scolitantides orion) est une espèce paléarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae. Elle est la seule espèce du genre monotypique Scolitantides.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_orpins</t>
+          <t>Azuré_des_orpins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : l’Azuré des orpins, et plus rarement le Polyommate de l'orpin ou l'Argus tigré[1].
-En anglais : Chequered Blue[2].
-En espagnol : Banda Naranja[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : l’Azuré des orpins, et plus rarement le Polyommate de l'orpin ou l'Argus tigré.
+En anglais : Chequered Blue.
+En espagnol : Banda Naranja.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_orpins</t>
+          <t>Azuré_des_orpins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de Scolitantides orion est un très petit papillon. 
 Le dessus des ailes présente un léger dimorphisme sexuel : le mâle est bleu (plus ou moins foncé suivant les sous-espèces) avec de larges bordures noires et une frange blanche entrecoupée de noir, tandis que la femelle est plus noire, ses zones bleues étant plus réduites.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_orpins</t>
+          <t>Azuré_des_orpins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-L'Azuré des orpins vole en une génération en mai-juin, parfois deux en mai puis en septembre[réf. souhaitée].
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azuré des orpins vole en une génération en mai-juin, parfois deux en mai puis en septembre[réf. souhaitée].
 Il hiverne à l'état nymphal.
-Plantes hôtes et myrmécophilie
-Les plantes hôtes de la chenille sont des orpins du genre Sedum, notamment Sedum album, S. telephium, S. hispanicum et S. maximum[3].
-La chenille est soignée par les fourmis des espèces Tapinoma erraticum, Camponotus vagus et Camponotus aethiops[3].
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_orpins</t>
+          <t>Azuré_des_orpins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,14 +628,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution géographique</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèce paléarctique, Scolitantides orion est répandue en Eurasie tempérée, de l'Europe au Japon et à l'Extrême-Orient russe.
-En Europe, elle est notamment présente en Espagne, en France, dans le Nord de l'Italie, en Grèce, en Macédoine du Nord, en Bulgarie, sur les côtes de Scandinavie et en Russie[3].
-En France, elle est recensée dans une trentaine de départements du Midi, au sud d'un arc reliant les Hautes-Pyrénées, l'Allier et la Savoie, ainsi qu'en Corse[4].
+          <t>Plantes hôtes et myrmécophilie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des orpins du genre Sedum, notamment Sedum album, S. telephium, S. hispanicum et S. maximum.
+La chenille est soignée par les fourmis des espèces Tapinoma erraticum, Camponotus vagus et Camponotus aethiops.
 </t>
         </is>
       </c>
@@ -628,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_orpins</t>
+          <t>Azuré_des_orpins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,15 +666,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce paléarctique, Scolitantides orion est répandue en Eurasie tempérée, de l'Europe au Japon et à l'Extrême-Orient russe.
+En Europe, elle est notamment présente en Espagne, en France, dans le Nord de l'Italie, en Grèce, en Macédoine du Nord, en Bulgarie, sur les côtes de Scandinavie et en Russie.
+En France, elle est recensée dans une trentaine de départements du Midi, au sud d'un arc reliant les Hautes-Pyrénées, l'Allier et la Savoie, ainsi qu'en Corse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_des_orpins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_orpins</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce aujourd'hui appelée Scolitantides orion a été décrite par le zoologiste allemand Peter Simon Pallas en 1771 sous le nom initial de Papilio orion[5]. 
-Elle est l'unique espèce du genre Scolitantides, décrit en 1819 par l'entomologiste allemand Jakob Hübner[6], et dont l'espèce type est Papilio battus [Denis &amp; Schiffermüller], 1775, qui est aujourd'hui considérée comme une sous-espèce de Scolitantides orion[2].
-Synonymes
-D'après FUNET Tree of Life  (24 juin 2019)[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce aujourd'hui appelée Scolitantides orion a été décrite par le zoologiste allemand Peter Simon Pallas en 1771 sous le nom initial de Papilio orion. 
+Elle est l'unique espèce du genre Scolitantides, décrit en 1819 par l'entomologiste allemand Jakob Hübner, et dont l'espèce type est Papilio battus [Denis &amp; Schiffermüller], 1775, qui est aujourd'hui considérée comme une sous-espèce de Scolitantides orion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_des_orpins</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_orpins</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après FUNET Tree of Life  (24 juin 2019) :
 Papilio orion Pallas, 1771
 Papilio battus [Denis &amp; Schiffermüller], 1775
 Papilio telephii Esper, 1778
@@ -660,10 +755,46 @@
 Scolitantides athene Hemming, 1934
 Lycaena dageletensis Seok, 1938
 Lycaena jeholana Matsumura, 1939
-Sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_des_orpins</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_orpins</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Scolitantides o. orion  ♀ 	MHNT
 			Scolitantides o. orion  ♀ △
-De nombreuses sous-espèces ont été décrites[2] :
+De nombreuses sous-espèces ont été décrites :
 Scolitantides orion orion (Pallas, 1771) — en Europe, dans le Caucase et en Russie jusqu'à l'Extrême-Orient.
 Scolitantides orion battus ([Denis &amp; Schiffermüller], 1775) — en Europe.
 Scolitantides orion orithyia (Grum-Grshimailo, 1891)
@@ -680,33 +811,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_des_orpins</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_orpins</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_des_orpins</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_orpins</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scolitantides orion n'a pas de statut de protection légale en France[7].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scolitantides orion n'a pas de statut de protection légale en France.
 </t>
         </is>
       </c>
